--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-28MCA-750 (Франкония 0,75 л.).xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/X-28MCA-750 (Франкония 0,75 л.).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501954A0-8278-4BEA-A4C8-ABA9C5F08711}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -172,7 +180,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -931,12 +939,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -949,21 +967,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,6 +1071,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1096,6 +1123,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1271,53 +1315,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="108" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="39"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1325,7 +1369,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1337,7 +1381,7 @@
       <c r="K3" s="40"/>
       <c r="M3" s="14"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>0</v>
       </c>
@@ -1375,14 +1419,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>1</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="107" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="55">
@@ -1402,7 +1446,7 @@
       <c r="K5" s="53"/>
       <c r="L5" s="83"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <f>A5+1</f>
         <v>2</v>
@@ -1410,7 +1454,7 @@
       <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="9">
@@ -1430,7 +1474,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="84"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="56">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
@@ -1438,7 +1482,7 @@
       <c r="B7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="9">
@@ -1458,7 +1502,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="84"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1466,7 +1510,7 @@
       <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="9">
@@ -1486,7 +1530,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="84"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1494,7 +1538,7 @@
       <c r="B9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="9">
@@ -1514,7 +1558,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="84"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1522,7 +1566,7 @@
       <c r="B10" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="9">
@@ -1542,7 +1586,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="84"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="56">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1550,7 +1594,7 @@
       <c r="B11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="9">
@@ -1571,7 +1615,7 @@
       <c r="L11" s="84"/>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1579,7 +1623,7 @@
       <c r="B12" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="9">
@@ -1600,7 +1644,7 @@
       <c r="L12" s="84"/>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1608,7 +1652,7 @@
       <c r="B13" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="9">
@@ -1630,7 +1674,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="84"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1638,7 +1682,7 @@
       <c r="B14" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="9">
@@ -1658,7 +1702,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="84"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1666,7 +1710,7 @@
       <c r="B15" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="108" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="9">
@@ -1686,7 +1730,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="84"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1694,7 +1738,7 @@
       <c r="B16" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="109" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="9">
@@ -1714,7 +1758,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="84"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="76"/>
       <c r="B17" s="75"/>
       <c r="C17" s="1"/>
@@ -1726,7 +1770,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="77" t="s">
         <v>10</v>
@@ -1742,7 +1786,7 @@
       <c r="K18" s="78"/>
       <c r="L18" s="78"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>22</v>
       </c>
@@ -1774,7 +1818,7 @@
       <c r="K19" s="79"/>
       <c r="L19" s="79"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="85">
         <f>E5*700000</f>
         <v>15400000</v>
@@ -1810,7 +1854,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="72"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89"/>
@@ -1824,7 +1868,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1838,7 +1882,7 @@
       <c r="K22" s="72"/>
       <c r="L22" s="72"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="94"/>
       <c r="C23" s="94"/>
@@ -1852,7 +1896,7 @@
       <c r="K23" s="80"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1866,7 +1910,7 @@
       <c r="K24" s="81"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1880,7 +1924,7 @@
       <c r="K25" s="80"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1894,7 +1938,7 @@
       <c r="K26" s="80"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1908,7 +1952,7 @@
       <c r="K27" s="80"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1922,7 +1966,7 @@
       <c r="K28" s="80"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1936,7 +1980,7 @@
       <c r="K29" s="80"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1950,7 +1994,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +2025,7 @@
       <c r="K31" s="82"/>
       <c r="L31" s="82"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1993,13 +2037,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="105" t="s">
+    <row r="35" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2007,11 +2051,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="102" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="102"/>
+      <c r="B36" s="106"/>
       <c r="C36" s="12" t="s">
         <v>17</v>
       </c>
@@ -2025,12 +2069,12 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="100">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="104">
         <f>A20-F31</f>
         <v>14875032</v>
       </c>
-      <c r="B37" s="101"/>
+      <c r="B37" s="105"/>
       <c r="C37" s="86">
         <f>1-G31</f>
         <v>0.96591116883116879</v>
@@ -2041,16 +2085,16 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="109" t="s">
+      <c r="G37" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2058,7 +2102,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2073,7 +2117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2085,7 +2129,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="68"/>
       <c r="B41" s="68"/>
       <c r="C41" s="68"/>
@@ -2094,10 +2138,10 @@
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
       <c r="H41" s="68"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="99"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="69"/>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -2107,7 +2151,7 @@
       <c r="G42" s="71"/>
       <c r="H42" s="70"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="69"/>
       <c r="B43" s="70"/>
       <c r="C43" s="70"/>
@@ -2117,7 +2161,7 @@
       <c r="G43" s="71"/>
       <c r="H43" s="70"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="69"/>
       <c r="B44" s="70"/>
       <c r="C44" s="70"/>
@@ -2127,7 +2171,7 @@
       <c r="G44" s="71"/>
       <c r="H44" s="70"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="69"/>
       <c r="B45" s="70"/>
       <c r="C45" s="70"/>
@@ -2137,7 +2181,7 @@
       <c r="G45" s="71"/>
       <c r="H45" s="70"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="69"/>
       <c r="B46" s="70"/>
       <c r="C46" s="70"/>
@@ -2147,7 +2191,7 @@
       <c r="G46" s="71"/>
       <c r="H46" s="70"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="69"/>
       <c r="B47" s="70"/>
       <c r="C47" s="72"/>
@@ -2157,7 +2201,7 @@
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="69"/>
       <c r="B48" s="70"/>
       <c r="C48" s="70"/>
@@ -2167,7 +2211,7 @@
       <c r="G48" s="71"/>
       <c r="H48" s="70"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="69"/>
       <c r="B49" s="70"/>
       <c r="C49" s="70"/>
@@ -2177,7 +2221,7 @@
       <c r="G49" s="71"/>
       <c r="H49" s="70"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="69"/>
       <c r="B50" s="70"/>
       <c r="C50" s="70"/>
@@ -2187,11 +2231,11 @@
       <c r="G50" s="71"/>
       <c r="H50" s="70"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="107"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="99"/>
       <c r="E51" s="74"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2199,7 +2243,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="68"/>
       <c r="B52" s="68"/>
       <c r="C52" s="68"/>
@@ -2208,10 +2252,10 @@
       <c r="F52" s="68"/>
       <c r="G52" s="68"/>
       <c r="H52" s="68"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="99"/>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="69"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2220,10 +2264,10 @@
       <c r="F53" s="71"/>
       <c r="G53" s="71"/>
       <c r="H53" s="70"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="69"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2232,10 +2276,10 @@
       <c r="F54" s="72"/>
       <c r="G54" s="72"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2245,25 +2289,19 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="98"/>
-      <c r="C60" s="99"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="98"/>
-      <c r="C67" s="99"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="102"/>
+      <c r="C60" s="103"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="102"/>
+      <c r="C67" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2271,6 +2309,12 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G37:L37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2284,12 +2328,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2298,24 +2342,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
